--- a/1_Data_Crawling/Digital_Transformation/LotteOn_Before_DT.xlsx
+++ b/1_Data_Crawling/Digital_Transformation/LotteOn_Before_DT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\NLP_Review_Classifier\1. Data Crawling\Digital_Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\NLP_Review_Classifier\1_Data_Crawling\Digital_Transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBB4761-8742-4D37-9817-102C3E86081A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A649C9-80E6-435D-A3DD-F49A5912F806}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F475A768-4373-463D-A06B-48B7B81E3150}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15225" windowHeight="11385" xr2:uid="{F475A768-4373-463D-A06B-48B7B81E3150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3288,10 +3288,6 @@
     <t>무슨 결제만 누르면 오류가떠요</t>
   </si>
   <si>
-    <t>네이버로 주문하나 어플까나 가격동일. 할인해준데서 깔았는데 낚임 전화해보니 상담원도 그러려니함
-다들 굳이 어플깔 필요 없이 인터넷으로 주문하셔요</t>
-  </si>
-  <si>
     <t>그냥 다른 브랜드 쓰고싶어질정도로 bad request 업뎃해더 계속 떠요 ㅋ</t>
   </si>
   <si>
@@ -3338,10 +3334,6 @@
     <t>명품지갑 할인 많이 받아서 구매완료!</t>
   </si>
   <si>
-    <t>로그인 자꾸 풀림
-맞는 비번으로 해도 처음에 로그인 실패라고 뜨고 두세번은 다시 눌러줘야 로그인됌 거지같음</t>
-  </si>
-  <si>
     <t>엘포인트 적립률도 높고 여기저기 쓸 수 있어서 이게 전 젤 만족</t>
   </si>
   <si>
@@ -3447,6 +3439,12 @@
   </si>
   <si>
     <t>자동 할인적용 되서 간편하게 쓰기 좋아여</t>
+  </si>
+  <si>
+    <t>네이버로 주문하나 어플까나 가격동일. 할인해준데서 깔았는데 낚임 전화해보니 상담원도 그러려니함 다들 굳이 어플깔 필요 없이 인터넷으로 주문하셔요</t>
+  </si>
+  <si>
+    <t>로그인 자꾸 풀림 맞는 비번으로 해도 처음에 로그인 실패라고 뜨고 두세번은 다시 눌러줘야 로그인됌 거지같음</t>
   </si>
 </sst>
 </file>
@@ -3819,7 +3817,7 @@
   <dimension ref="A1:C1199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7495,7 +7493,7 @@
         <v>43572</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
       <c r="C334">
         <v>1</v>
@@ -7539,7 +7537,7 @@
         <v>43571</v>
       </c>
       <c r="B338" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C338">
         <v>1</v>
@@ -7726,7 +7724,7 @@
         <v>43564</v>
       </c>
       <c r="B355" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C355">
         <v>1</v>
@@ -7814,7 +7812,7 @@
         <v>43560</v>
       </c>
       <c r="B363" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C363">
         <v>1</v>
@@ -7880,7 +7878,7 @@
         <v>43557</v>
       </c>
       <c r="B369" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C369">
         <v>1</v>
@@ -7913,7 +7911,7 @@
         <v>43556</v>
       </c>
       <c r="B372" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C372">
         <v>1</v>
@@ -8100,7 +8098,7 @@
         <v>43553</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -8485,7 +8483,7 @@
         <v>43552</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -8496,7 +8494,7 @@
         <v>43552</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -8551,7 +8549,7 @@
         <v>43551</v>
       </c>
       <c r="B430" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C430">
         <v>3</v>
@@ -8738,7 +8736,7 @@
         <v>43537</v>
       </c>
       <c r="B447" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -8749,7 +8747,7 @@
         <v>43537</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -8980,7 +8978,7 @@
         <v>43521</v>
       </c>
       <c r="B469" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -9079,7 +9077,7 @@
         <v>43515</v>
       </c>
       <c r="B478" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -9200,7 +9198,7 @@
         <v>43510</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -9299,7 +9297,7 @@
         <v>43503</v>
       </c>
       <c r="B498" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -9816,7 +9814,7 @@
         <v>43464</v>
       </c>
       <c r="B545" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C545">
         <v>1</v>
@@ -9981,7 +9979,7 @@
         <v>43452</v>
       </c>
       <c r="B560" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -10047,7 +10045,7 @@
         <v>43446</v>
       </c>
       <c r="B566" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -10663,7 +10661,7 @@
         <v>43415</v>
       </c>
       <c r="B622" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -10696,7 +10694,7 @@
         <v>43412</v>
       </c>
       <c r="B625" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -10938,7 +10936,7 @@
         <v>43392</v>
       </c>
       <c r="B647" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -10993,7 +10991,7 @@
         <v>43385</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C652">
         <v>2</v>
@@ -11268,7 +11266,7 @@
         <v>43381</v>
       </c>
       <c r="B677" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C677">
         <v>5</v>
@@ -11301,7 +11299,7 @@
         <v>43379</v>
       </c>
       <c r="B680" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C680">
         <v>1</v>
@@ -11510,7 +11508,7 @@
         <v>43370</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -11653,7 +11651,7 @@
         <v>43368</v>
       </c>
       <c r="B712" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C712">
         <v>1</v>
@@ -11752,7 +11750,7 @@
         <v>43365</v>
       </c>
       <c r="B721" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C721">
         <v>1</v>
@@ -12192,7 +12190,7 @@
         <v>43346</v>
       </c>
       <c r="B761" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C761">
         <v>1</v>
@@ -12489,7 +12487,7 @@
         <v>43312</v>
       </c>
       <c r="B788" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C788">
         <v>1</v>
@@ -12500,7 +12498,7 @@
         <v>43312</v>
       </c>
       <c r="B789" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C789">
         <v>1</v>
@@ -12555,7 +12553,7 @@
         <v>43309</v>
       </c>
       <c r="B794" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C794">
         <v>1</v>
@@ -12599,7 +12597,7 @@
         <v>43300</v>
       </c>
       <c r="B798" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C798">
         <v>1</v>
@@ -12676,7 +12674,7 @@
         <v>43290</v>
       </c>
       <c r="B805" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C805">
         <v>3</v>
@@ -13204,7 +13202,7 @@
         <v>43272</v>
       </c>
       <c r="B853" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C853">
         <v>1</v>
@@ -14040,7 +14038,7 @@
         <v>43215</v>
       </c>
       <c r="B929" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C929">
         <v>1</v>
@@ -14271,7 +14269,7 @@
         <v>43204</v>
       </c>
       <c r="B950" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C950">
         <v>1</v>
@@ -14711,7 +14709,7 @@
         <v>43184</v>
       </c>
       <c r="B990" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C990">
         <v>1</v>
@@ -14722,7 +14720,7 @@
         <v>43184</v>
       </c>
       <c r="B991" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C991">
         <v>1</v>
@@ -15140,7 +15138,7 @@
         <v>43172</v>
       </c>
       <c r="B1029" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C1029">
         <v>1</v>
@@ -15833,7 +15831,7 @@
         <v>43152</v>
       </c>
       <c r="B1092" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C1092">
         <v>3</v>
@@ -16141,7 +16139,7 @@
         <v>43134</v>
       </c>
       <c r="B1120" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C1120">
         <v>1</v>
@@ -16317,7 +16315,7 @@
         <v>43127</v>
       </c>
       <c r="B1136" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C1136">
         <v>5</v>
@@ -16328,7 +16326,7 @@
         <v>43127</v>
       </c>
       <c r="B1137" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C1137">
         <v>3</v>
@@ -16702,7 +16700,7 @@
         <v>43109</v>
       </c>
       <c r="B1171" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C1171">
         <v>1</v>
@@ -16911,7 +16909,7 @@
         <v>43105</v>
       </c>
       <c r="B1190" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C1190">
         <v>5</v>
@@ -16922,7 +16920,7 @@
         <v>43105</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C1191">
         <v>5</v>
@@ -17010,7 +17008,7 @@
         <v>43101</v>
       </c>
       <c r="B1199" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C1199">
         <v>1</v>
